--- a/public/data/designer_list.xlsx
+++ b/public/data/designer_list.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="259">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -34,7 +34,10 @@
     <t>인스타그램 아이디</t>
   </si>
   <si>
-    <t>그 외</t>
+    <t>project1</t>
+  </si>
+  <si>
+    <t>project2</t>
   </si>
   <si>
     <t>dlfp6736@hanmail.net</t>
@@ -49,6 +52,9 @@
     <t>@4.24re</t>
   </si>
   <si>
+    <t>영상_소년심판_썸네일</t>
+  </si>
+  <si>
     <t>2garden34@gmail.com</t>
   </si>
   <si>
@@ -58,6 +64,15 @@
     <t>Lee jeongwon</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_%E1%84%8E%E1%85%AE%E1%84%8B%E1%85%A5%E1%86%A8%E1%84%8D%E1%85%A9%E1%86%A8%E1%84%8C%E1%85%B5_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_SCALE_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
     <t>ny990108@gmail.com</t>
   </si>
   <si>
@@ -70,6 +85,12 @@
     <t>ny0108@naver.com</t>
   </si>
   <si>
+    <t>그래픽_Emotion Traffic_썸네일</t>
+  </si>
+  <si>
+    <t>영상_반짝이는 워터멜론 오프닝 타이틀_썸네일</t>
+  </si>
+  <si>
     <t>m20670ok@naver.com</t>
   </si>
   <si>
@@ -82,6 +103,12 @@
     <t>@seo_gogh</t>
   </si>
   <si>
+    <t>그래픽_minimalism_썸네일</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_Pale+Blue+Dot_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
     <t>jinideepsea@gmail.com</t>
   </si>
   <si>
@@ -94,6 +121,12 @@
     <t>@jini.deep_sea</t>
   </si>
   <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_I+Really+Like+You+MV_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>브랜딩_mini(mail)ism_썸네일</t>
+  </si>
+  <si>
     <t>kimna0101@naver.com</t>
   </si>
   <si>
@@ -106,6 +139,9 @@
     <t>@nana88qq</t>
   </si>
   <si>
+    <t>UXUI_yumlikethis_썸네일</t>
+  </si>
+  <si>
     <t>gaeun1021@gmail.com</t>
   </si>
   <si>
@@ -115,6 +151,12 @@
     <t>Gaeun Kim</t>
   </si>
   <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_Nepenthes_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>그래픽_OrnaFrame_썸네일</t>
+  </si>
+  <si>
     <t>qkrcofls13@naver.com</t>
   </si>
   <si>
@@ -127,6 +169,9 @@
     <t>@viv_term</t>
   </si>
   <si>
+    <t>그래픽_겨울 지나 여름에게로_썸네일</t>
+  </si>
+  <si>
     <t>03chim08@naver.com</t>
   </si>
   <si>
@@ -139,6 +184,12 @@
     <t>@oichb</t>
   </si>
   <si>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_%E1%84%83%E1%85%A9%E1%86%A8%E1%84%85%E1%85%B5%E1%86%B8%E1%84%91%E1%85%B3%E1%84%85%E1%85%A9%E1%84%8C%E1%85%A6%E1%86%A8%E1%84%90%E1%85%B3%E1%84%86%E1%85%AE%E1%84%8C%E1%85%AE%E1%84%90%E1%85%A2%E1%86%A8%E1%84%8C%E1%85%A199_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_%E1%84%83%E1%85%A9%E1%86%A8%E1%84%85%E1%85%B5%E1%86%B8%E1%84%91%E1%85%B3%E1%84%85%E1%85%A9%E1%84%8C%E1%85%A6%E1%86%A8%E1%84%90%E1%85%B3%E1%84%86%E1%85%AE%E1%84%8C%E1%85%AE%E1%84%90%E1%85%A2%E1%86%A8%E1%84%8C%E1%85%A199_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF_</t>
+  </si>
+  <si>
     <t>younjisoo00@gmail.com</t>
   </si>
   <si>
@@ -148,6 +199,12 @@
     <t>Jisoo Youn</t>
   </si>
   <si>
+    <t>브랜딩_두랑두랑_썸네일</t>
+  </si>
+  <si>
+    <t>영상_Save the earth_썸네일</t>
+  </si>
+  <si>
     <t>jayeom0727@gmail.com</t>
   </si>
   <si>
@@ -163,6 +220,9 @@
     <t>@so_g__eum</t>
   </si>
   <si>
+    <t>그래픽_숨바꼭질_썸네일</t>
+  </si>
+  <si>
     <t>kkmin99@naver.com</t>
   </si>
   <si>
@@ -172,6 +232,9 @@
     <t>Kyeoummin Kim</t>
   </si>
   <si>
+    <t>영상_남겨진 날_썸네일</t>
+  </si>
+  <si>
     <t>eunwoul5509@naver.com</t>
   </si>
   <si>
@@ -184,6 +247,12 @@
     <t>@n_uisance</t>
   </si>
   <si>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_%E1%84%89%E1%85%A2%E1%86%BC%E1%84%80%E1%85%A1%E1%86%A8%E1%84%92%E1%85%A1%E1%84%82%E1%85%B3%E1%86%AB%E1%84%80%E1%85%A9%E1%86%BC%E1%84%80%E1%85%A1%E1%86%AB_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_%E1%84%92%E1%85%A1%E1%86%AB%E1%84%80%E1%85%AE%E1%86%A8%E1%84%91%E1%85%A2%E1%84%89%E1%85%A7%E1%86%AB%E1%84%8B%E1%85%B4%E1%84%87%E1%85%A7%E1%86%AB%E1%84%8E%E1%85%A5%E1%86%AB%E1%84%89%E1%85%A1_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
     <t>xxsianxx2000xxx@gmail.com</t>
   </si>
   <si>
@@ -199,6 +268,12 @@
     <t>@Prototype_sian</t>
   </si>
   <si>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_%E1%84%92%E1%85%A1%E1%86%AB%E1%84%80%E1%85%B3%E1%86%AF%E1%84%86%E1%85%A6%E1%84%90%E1%85%A1%E1%86%AF%E1%84%80%E1%85%B3%E1%86%AF%E1%84%8C%E1%85%A1%E1%84%8B%E1%85%A7%E1%86%AB%E1%84%80%E1%85%AE_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_%E1%84%87%E1%85%B5%E1%86%BE%E1%84%8B%E1%85%B5%E1%84%89%E1%85%A6%E1%84%89%E1%85%A1%E1%86%BC%E1%84%8B%E1%85%B4%E1%84%86%E1%85%A9%E1%84%83%E1%85%B3%E1%86%AB%E1%84%90%E1%85%B3%E1%86%B7%E1%84%8B%E1%85%B3%E1%86%AF%E1%84%86%E1%85%A6%E1%84%8B%E1%85%AE%E1%86%AB%E1%84%83%E1%85%A1_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
     <t>doobog@naver.com</t>
   </si>
   <si>
@@ -211,6 +286,12 @@
     <t>@moonji_____yes</t>
   </si>
   <si>
+    <t>브랜딩_mizmas_썸네일</t>
+  </si>
+  <si>
+    <t>영상_Human Life_썸네일</t>
+  </si>
+  <si>
     <t>jeonglily@naver.com</t>
   </si>
   <si>
@@ -223,6 +304,9 @@
     <t>@bellezaera</t>
   </si>
   <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_Trip+with+you_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
     <t>ytojin52@naver.com</t>
   </si>
   <si>
@@ -235,6 +319,12 @@
     <t>lee-yz@naver.com</t>
   </si>
   <si>
+    <t>UXUI_BOWLINER_썸네일</t>
+  </si>
+  <si>
+    <t>그래픽_VERTIGUL_썸네일</t>
+  </si>
+  <si>
     <t>dnaue0130@naver.com</t>
   </si>
   <si>
@@ -250,6 +340,12 @@
     <t>@alograce30</t>
   </si>
   <si>
+    <t>브랜딩_frup_썸네일</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_NO+PAIN_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
     <t>9omin9im@gmail.com</t>
   </si>
   <si>
@@ -262,6 +358,12 @@
     <t>@9ominkim</t>
   </si>
   <si>
+    <t>그래픽_줄서기_썸네일</t>
+  </si>
+  <si>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%82%E1%85%A9%E1%86%A8%E1%84%8C%E1%85%B5%E1%86%AB_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
     <t>wide1543@gmail.com</t>
   </si>
   <si>
@@ -274,6 +376,9 @@
     <t>@_m.i.n_m_</t>
   </si>
   <si>
+    <t>그래픽_의식낚시_썸네일</t>
+  </si>
+  <si>
     <t>cowls042@naver.com</t>
   </si>
   <si>
@@ -286,6 +391,9 @@
     <t>@8_15.k</t>
   </si>
   <si>
+    <t>영상_카지노_Title Sequence_썸네일</t>
+  </si>
+  <si>
     <t>basometal077@naver.com</t>
   </si>
   <si>
@@ -301,6 +409,9 @@
     <t>@__.epi.phany</t>
   </si>
   <si>
+    <t>브랜딩_포에_썸네일</t>
+  </si>
+  <si>
     <t>yonheesun1097@gmail.com</t>
   </si>
   <si>
@@ -316,6 +427,12 @@
     <t>@hee.00.0</t>
   </si>
   <si>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_typing+duel</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_fairy+tale</t>
+  </si>
+  <si>
     <t>zzzzziiiiinnnnn@naver.com</t>
   </si>
   <si>
@@ -337,6 +454,12 @@
     <t>Dahee Hong</t>
   </si>
   <si>
+    <t>그래픽_타입모터스_썸네일</t>
+  </si>
+  <si>
+    <t>영상_가와사키 브랜드 필름_썸네일</t>
+  </si>
+  <si>
     <t>charin9892@naver.com</t>
   </si>
   <si>
@@ -352,6 +475,12 @@
     <t>@chaering_1</t>
   </si>
   <si>
+    <t>그래픽_맛타입_썸네일</t>
+  </si>
+  <si>
+    <t>브랜딩_출출나잇_썸네일</t>
+  </si>
+  <si>
     <t>hanqomi@gmail.com</t>
   </si>
   <si>
@@ -364,6 +493,9 @@
     <t>@131pm</t>
   </si>
   <si>
+    <t>그래픽_물의 형에서 자로의 변조_썸네일</t>
+  </si>
+  <si>
     <t>je0323235179@gmail.com</t>
   </si>
   <si>
@@ -385,6 +517,9 @@
     <t>sllsn273@naver.com</t>
   </si>
   <si>
+    <t>브랜딩_4분의1_썸네일</t>
+  </si>
+  <si>
     <t>swu.yujin@gmail.com</t>
   </si>
   <si>
@@ -397,6 +532,12 @@
     <t>@y_jin.design</t>
   </si>
   <si>
+    <t>브랜딩_앙베리_썸네일</t>
+  </si>
+  <si>
+    <t>영상_Telephobia_썸네일</t>
+  </si>
+  <si>
     <t>leesy9525@gmail.com</t>
   </si>
   <si>
@@ -436,6 +577,9 @@
     <t>@arcadiandreamss</t>
   </si>
   <si>
+    <t>그래픽_표리문자_썸네일</t>
+  </si>
+  <si>
     <t>yeonnuui@gmail.com</t>
   </si>
   <si>
@@ -472,6 +616,12 @@
     <t>@one.oooooooo</t>
   </si>
   <si>
+    <t>브랜딩_COOKIMOND_썸네일</t>
+  </si>
+  <si>
+    <t>영상_공부하는 중 입니다만_썸네일</t>
+  </si>
+  <si>
     <t>joyunsuh020406@naver.com</t>
   </si>
   <si>
@@ -481,7 +631,163 @@
     <t>Yunsuh Jo</t>
   </si>
   <si>
-    <t>yunsuhjo</t>
+    <t>@yunsuhjo</t>
+  </si>
+  <si>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_RETRO+VIBE+COLLECTION+_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_CARD+POST_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>kathleen141731@gmail.com</t>
+  </si>
+  <si>
+    <t>우민하</t>
+  </si>
+  <si>
+    <t>Minha Woo</t>
+  </si>
+  <si>
+    <t>minha.woo2023@gmail.com</t>
+  </si>
+  <si>
+    <t>@minha.w_arts</t>
+  </si>
+  <si>
+    <t>UXUI_마음미술관_썸네일</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_Bacha+Coffee+Brand+Identity_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF+%E1%84%8B%E1%85%B5%E1%84%86%E1%85%B5%E1%84%8C%E1%85%B5</t>
+  </si>
+  <si>
+    <t>ksiyeon2020@naver.com</t>
+  </si>
+  <si>
+    <t>강시연</t>
+  </si>
+  <si>
+    <t>Siyeon Kang</t>
+  </si>
+  <si>
+    <t>그래픽_scent of month_썸네일</t>
+  </si>
+  <si>
+    <t>영상_Geometry of palace_썸네일</t>
+  </si>
+  <si>
+    <t>20ybae@naver.com</t>
+  </si>
+  <si>
+    <t>배윤영</t>
+  </si>
+  <si>
+    <t>Yoonyoung Bae</t>
+  </si>
+  <si>
+    <t>@ooooyyng</t>
+  </si>
+  <si>
+    <t>그래픽_GO WELL_썸네일</t>
+  </si>
+  <si>
+    <t>브랜딩_MONTHLY STUDIO_썸네일</t>
+  </si>
+  <si>
+    <t>kyw208@naver.com</t>
+  </si>
+  <si>
+    <t>김예원</t>
+  </si>
+  <si>
+    <t>Yewoen Kim</t>
+  </si>
+  <si>
+    <t>yewonkim0208@gmail.com</t>
+  </si>
+  <si>
+    <t>@ye_woen</t>
+  </si>
+  <si>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_BLEACHING_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_PUFF%2C+the+Homeless_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>konggkdus@naver.com</t>
+  </si>
+  <si>
+    <t>공하연</t>
+  </si>
+  <si>
+    <t>Hayeon Kong</t>
+  </si>
+  <si>
+    <t>@kk_0ng_0</t>
+  </si>
+  <si>
+    <t>그래픽_12지신 이야기_썸네일</t>
+  </si>
+  <si>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%89%E1%85%AE%E1%84%83%E1%85%A5%E1%84%87%E1%85%AE%E1%86%AB(SOOTHEBOON)_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>ijeongyeon777@gmail.com</t>
+  </si>
+  <si>
+    <t>이정연</t>
+  </si>
+  <si>
+    <t>Jeongyeon Lee</t>
+  </si>
+  <si>
+    <t>@level_works</t>
+  </si>
+  <si>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_Sports+biomechanics_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>UXUI_COSMO_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>jjahi0501@gmail.com</t>
+  </si>
+  <si>
+    <t>정자호</t>
+  </si>
+  <si>
+    <t>Jaho Jung</t>
+  </si>
+  <si>
+    <t>jjaho0501@gmail.com</t>
+  </si>
+  <si>
+    <t>@_5.zr_dx.xb</t>
+  </si>
+  <si>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%92%E1%85%A5%E1%84%86%E1%85%A5%E1%84%91%E1%85%B5%E1%84%8F%E1%85%A5_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>qksqlcquf@naver.com</t>
+  </si>
+  <si>
+    <t>반빛별</t>
+  </si>
+  <si>
+    <t>Bitbyeol Ban</t>
+  </si>
+  <si>
+    <t>vaniolett@gmail.com</t>
+  </si>
+  <si>
+    <t>@vaniolet</t>
+  </si>
+  <si>
+    <t>그래픽_대비의 초상_썸네일</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_ticticboom_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF-01</t>
   </si>
 </sst>
 </file>
@@ -518,16 +824,25 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -749,9 +1064,11 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" hidden="1" min="1" max="3" width="18.88"/>
-    <col customWidth="1" min="4" max="5" width="18.88"/>
-    <col customWidth="1" min="6" max="6" width="25.13"/>
-    <col customWidth="1" min="7" max="14" width="18.88"/>
+    <col customWidth="1" min="4" max="4" width="18.88"/>
+    <col customWidth="1" min="5" max="5" width="15.38"/>
+    <col customWidth="1" min="6" max="6" width="29.88"/>
+    <col customWidth="1" min="7" max="7" width="21.38"/>
+    <col customWidth="1" min="8" max="14" width="18.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -776,836 +1093,1680 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="4">
         <v>45483.849926689814</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5">
         <v>2.020111551E9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="G2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="6"/>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>45483.850282025465</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5">
         <v>2.020111556E9</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
+      <c r="G3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <v>45483.85051163194</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5">
         <v>2.021120112E9</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>18</v>
+      <c r="H4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>45483.85055668982</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="5">
         <v>2.020111549E9</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>22</v>
+      <c r="D5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>45483.850670115746</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="5">
         <v>2.019111565E9</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>26</v>
+      <c r="D6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2">
+      <c r="A7" s="4">
         <v>45483.85069501157</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="5">
         <v>2.019111533E9</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="D7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="6"/>
     </row>
     <row r="8">
-      <c r="A8" s="2">
+      <c r="A8" s="4">
         <v>45483.85076756944</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2.021111528E9</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4">
+        <v>45483.85079027778</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2.020111547E9</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="3">
-        <v>2.021111528E9</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2">
-        <v>45483.85079027778</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2.020111547E9</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="4">
         <v>45483.85081371528</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="B10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="5">
         <v>2.020111564E9</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>41</v>
+      <c r="D10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>45483.851098784726</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="B11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="5">
         <v>2.019111514E9</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="D11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="5"/>
     </row>
     <row r="12">
-      <c r="A12" s="2">
+      <c r="A12" s="4">
         <v>45483.853345069445</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="B12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="5">
         <v>2.020111555E9</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="D12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="6"/>
     </row>
     <row r="13">
-      <c r="A13" s="2">
+      <c r="A13" s="4">
         <v>45483.854299583334</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="B13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="5">
         <v>2.019120113E9</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="D13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="6"/>
     </row>
     <row r="14">
-      <c r="A14" s="2">
+      <c r="A14" s="4">
         <v>45483.85499579861</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="3">
+      <c r="B14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="5">
         <v>2.019111534E9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>56</v>
+      <c r="D14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2">
+      <c r="A15" s="4">
         <v>45483.85713200232</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="3">
+      <c r="B15" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="5">
         <v>2.020111493E9</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>61</v>
+      <c r="D15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2">
+      <c r="A16" s="4">
         <v>45483.857196689816</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2.020111546E9</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4">
+        <v>45483.85859116898</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2.020111559E9</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="4">
+        <v>45483.86138434028</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2.020111554E9</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4">
+        <v>45483.86740980324</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2.020111531E9</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4">
+        <v>45483.86951138889</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2.020111539E9</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4">
+        <v>45483.8698615162</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2.021111525E9</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="4">
+        <v>45483.87195886574</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2.020111541E9</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="3">
-        <v>2.020111546E9</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2">
-        <v>45483.85859116898</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="3">
-        <v>2.020111559E9</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2">
-        <v>45483.86138434028</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="3">
-        <v>2.020111554E9</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2">
-        <v>45483.86740980324</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="3">
-        <v>2.020111531E9</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2">
-        <v>45483.86951138889</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="3">
-        <v>2.020111539E9</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2">
-        <v>45483.8698615162</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="3">
-        <v>2.021111525E9</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2">
-        <v>45483.87195886574</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="3">
-        <v>2.020111541E9</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>90</v>
+      <c r="I22" s="3" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2">
+      <c r="A23" s="4">
         <v>45483.874047777776</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="3">
+      <c r="B23" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="5">
         <v>2.020111563E9</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>95</v>
-      </c>
+      <c r="D23" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I23" s="6"/>
     </row>
     <row r="24">
-      <c r="A24" s="2">
+      <c r="A24" s="4">
         <v>45483.88282304398</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C24" s="3">
+      <c r="B24" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="5">
         <v>2.021120114E9</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>100</v>
+      <c r="D24" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2">
+      <c r="A25" s="4">
         <v>45483.89063083333</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="3">
+      <c r="B25" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="5">
         <v>2.021111542E9</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>104</v>
-      </c>
+      <c r="D25" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="6"/>
     </row>
     <row r="26">
-      <c r="A26" s="2">
+      <c r="A26" s="4">
         <v>45483.89706001157</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="3">
+      <c r="B26" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="5">
         <v>2.021111559E9</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>105</v>
+      <c r="D26" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2">
+      <c r="A27" s="4">
         <v>45483.89757565972</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C27" s="3">
+      <c r="B27" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C27" s="5">
         <v>2.021111544E9</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4">
+        <v>45483.92174563657</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" s="5">
+        <v>2.020111567E9</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4">
+        <v>45483.95184060185</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" s="5">
+        <v>2.020111557E9</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="4">
+        <v>45483.97719099537</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" s="5">
+        <v>2.021120113E9</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="4">
+        <v>45483.98033005787</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" s="5">
+        <v>2.020111569E9</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4">
+        <v>45483.98998572917</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C32" s="5">
+        <v>2.021111624E9</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="4">
+        <v>45483.99446587963</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C33" s="5">
+        <v>2.020111279E9</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="4">
+        <v>45483.995296284724</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C34" s="5">
+        <v>2.020111537E9</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4">
+        <v>45483.99619723379</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C35" s="5">
+        <v>2.02011156E9</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="H35" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2">
-        <v>45483.92174563657</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C28" s="3">
-        <v>2.020111567E9</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2">
-        <v>45483.95184060185</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" s="3">
-        <v>2.020111557E9</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2">
-        <v>45483.97719099537</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C30" s="3">
-        <v>2.021120113E9</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2">
-        <v>45483.98033005787</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C31" s="3">
-        <v>2.020111569E9</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2">
-        <v>45483.98998572917</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2.021111624E9</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2">
-        <v>45483.99446587963</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C33" s="3">
-        <v>2.020111279E9</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2">
-        <v>45483.995296284724</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C34" s="3">
-        <v>2.020111537E9</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2">
-        <v>45483.99619723379</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C35" s="3">
-        <v>2.02011156E9</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>144</v>
-      </c>
+      <c r="I35" s="6"/>
     </row>
     <row r="36">
-      <c r="A36" s="2">
+      <c r="A36" s="4">
         <v>45484.0004687037</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C36" s="3">
+      <c r="B36" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C36" s="5">
         <v>2.020111565E9</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>148</v>
-      </c>
+      <c r="D36" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
     </row>
     <row r="37">
-      <c r="A37" s="2">
+      <c r="A37" s="4">
         <v>45484.000700868055</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C37" s="3">
+      <c r="B37" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C37" s="5">
         <v>2.021111537E9</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>152</v>
+      <c r="D37" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2">
+      <c r="A38" s="4">
         <v>45484.06832515047</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C38" s="3">
+      <c r="B38" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C38" s="5">
         <v>2.021111552E9</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>156</v>
-      </c>
+      <c r="D38" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4">
+        <v>45484.34876212963</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C39" s="5">
+        <v>2.019111549E9</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4">
+        <v>45484.39469783565</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C40" s="5">
+        <v>2.020111532E9</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="4">
+        <v>45484.39505439815</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C41" s="5">
+        <v>2.021111533E9</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="4">
+        <v>45484.404544537036</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C42" s="5">
+        <v>2.020111543E9</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="4">
+        <v>45484.40977184028</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C43" s="5">
+        <v>2.020111534E9</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="4">
+        <v>45484.41054541667</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C44" s="5">
+        <v>2.021111514E9</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="4">
+        <v>45484.42563222222</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C45" s="5">
+        <v>2.020111561E9</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="4">
+        <v>45484.43130753472</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C46" s="5">
+        <v>2.020111648E9</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48">
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49">
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50">
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51">
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52">
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53">
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54">
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55">
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56">
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57">
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58">
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59">
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+    </row>
+    <row r="60">
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61">
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62">
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+    </row>
+    <row r="63">
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+    </row>
+    <row r="64">
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+    </row>
+    <row r="65">
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+    </row>
+    <row r="66">
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+    </row>
+    <row r="67">
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+    </row>
+    <row r="68">
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+    </row>
+    <row r="69">
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+    </row>
+    <row r="70">
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+    </row>
+    <row r="71">
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+    </row>
+    <row r="72">
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+    </row>
+    <row r="73">
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+    </row>
+    <row r="74">
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+    </row>
+    <row r="75">
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+    </row>
+    <row r="76">
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+    </row>
+    <row r="77">
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+    </row>
+    <row r="78">
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+    </row>
+    <row r="79">
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+    </row>
+    <row r="80">
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+    </row>
+    <row r="81">
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+    </row>
+    <row r="82">
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+    </row>
+    <row r="83">
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+    </row>
+    <row r="84">
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+    </row>
+    <row r="85">
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+    </row>
+    <row r="86">
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+    </row>
+    <row r="87">
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+    </row>
+    <row r="88">
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+    </row>
+    <row r="89">
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+    </row>
+    <row r="90">
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+    </row>
+    <row r="91">
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+    </row>
+    <row r="92">
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+    </row>
+    <row r="93">
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+    </row>
+    <row r="94">
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+    </row>
+    <row r="95">
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+    </row>
+    <row r="96">
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+    </row>
+    <row r="97">
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+    </row>
+    <row r="98">
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+    </row>
+    <row r="99">
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+    </row>
+    <row r="100">
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+    </row>
+    <row r="101">
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+    </row>
+    <row r="102">
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+    </row>
+    <row r="103">
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+    </row>
+    <row r="104">
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+    </row>
+    <row r="105">
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+    </row>
+    <row r="106">
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+    </row>
+    <row r="107">
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
+    </row>
+    <row r="108">
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
+    </row>
+    <row r="109">
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
+    </row>
+    <row r="110">
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
+    </row>
+    <row r="111">
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+    </row>
+    <row r="112">
+      <c r="H112" s="6"/>
+      <c r="I112" s="6"/>
+    </row>
+    <row r="113">
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
+    </row>
+    <row r="114">
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
+    </row>
+    <row r="115">
+      <c r="H115" s="6"/>
+      <c r="I115" s="6"/>
+    </row>
+    <row r="116">
+      <c r="H116" s="6"/>
+      <c r="I116" s="6"/>
+    </row>
+    <row r="117">
+      <c r="H117" s="6"/>
+      <c r="I117" s="6"/>
+    </row>
+    <row r="118">
+      <c r="H118" s="6"/>
+      <c r="I118" s="6"/>
+    </row>
+    <row r="119">
+      <c r="H119" s="6"/>
+      <c r="I119" s="6"/>
+    </row>
+    <row r="120">
+      <c r="H120" s="6"/>
+      <c r="I120" s="6"/>
+    </row>
+    <row r="121">
+      <c r="H121" s="6"/>
+      <c r="I121" s="6"/>
+    </row>
+    <row r="122">
+      <c r="H122" s="6"/>
+      <c r="I122" s="6"/>
+    </row>
+    <row r="123">
+      <c r="H123" s="6"/>
+      <c r="I123" s="6"/>
+    </row>
+    <row r="124">
+      <c r="H124" s="6"/>
+      <c r="I124" s="6"/>
+    </row>
+    <row r="125">
+      <c r="H125" s="6"/>
+      <c r="I125" s="6"/>
+    </row>
+    <row r="126">
+      <c r="H126" s="6"/>
+      <c r="I126" s="6"/>
+    </row>
+    <row r="127">
+      <c r="H127" s="6"/>
+      <c r="I127" s="6"/>
+    </row>
+    <row r="128">
+      <c r="H128" s="6"/>
+      <c r="I128" s="6"/>
+    </row>
+    <row r="129">
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
+    </row>
+    <row r="130">
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
+    </row>
+    <row r="131">
+      <c r="H131" s="6"/>
+      <c r="I131" s="6"/>
+    </row>
+    <row r="132">
+      <c r="H132" s="6"/>
+      <c r="I132" s="6"/>
+    </row>
+    <row r="133">
+      <c r="H133" s="6"/>
+      <c r="I133" s="6"/>
+    </row>
+    <row r="134">
+      <c r="H134" s="6"/>
+      <c r="I134" s="6"/>
+    </row>
+    <row r="135">
+      <c r="H135" s="6"/>
+      <c r="I135" s="6"/>
+    </row>
+    <row r="136">
+      <c r="H136" s="6"/>
+      <c r="I136" s="6"/>
+    </row>
+    <row r="137">
+      <c r="H137" s="6"/>
+      <c r="I137" s="6"/>
+    </row>
+    <row r="138">
+      <c r="H138" s="6"/>
+      <c r="I138" s="6"/>
+    </row>
+    <row r="139">
+      <c r="H139" s="6"/>
+      <c r="I139" s="6"/>
+    </row>
+    <row r="140">
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+    </row>
+    <row r="141">
+      <c r="H141" s="6"/>
+      <c r="I141" s="6"/>
+    </row>
+    <row r="142">
+      <c r="H142" s="6"/>
+      <c r="I142" s="6"/>
+    </row>
+    <row r="143">
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+    </row>
+    <row r="144">
+      <c r="H144" s="6"/>
+      <c r="I144" s="6"/>
+    </row>
+    <row r="145">
+      <c r="H145" s="6"/>
+      <c r="I145" s="6"/>
+    </row>
+    <row r="146">
+      <c r="H146" s="6"/>
+      <c r="I146" s="6"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/public/data/designer_list.xlsx
+++ b/public/data/designer_list.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="270">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -76,6 +76,12 @@
     <t>그래픽_의식낚시_썸네일</t>
   </si>
   <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_Lost+and+Found_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>영상 Lost and Found</t>
+  </si>
+  <si>
     <t>ksiyeon2020@naver.com</t>
   </si>
   <si>
@@ -472,6 +478,9 @@
     <t>영상_소년심판_썸네일</t>
   </si>
   <si>
+    <t>UXUI_루나리움_썸네일</t>
+  </si>
+  <si>
     <t>leesy9525@gmail.com</t>
   </si>
   <si>
@@ -523,6 +532,9 @@
     <t>그래픽_숨바꼭질_썸네일</t>
   </si>
   <si>
+    <t>UXUI_%E1%84%89%E1%85%AE%E1%86%B7%E1%84%87%E1%85%A1%E1%84%81%E1%85%A9%E1%86%A8%E1%84%8C%E1%85%B5%E1%86%AF_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
     <t>ijeongyeon777@gmail.com</t>
   </si>
   <si>
@@ -568,7 +580,10 @@
     <t>@2zinng</t>
   </si>
   <si>
-    <t>동명이인인데 누가 누구신지 모르겠습니다</t>
+    <t>그래픽_sticker_썸네일</t>
+  </si>
+  <si>
+    <t>영상_Lets Dance!_썸네일</t>
   </si>
   <si>
     <t>je0323235179@gmail.com</t>
@@ -578,6 +593,12 @@
   </si>
   <si>
     <t>@pas0ngs0ng</t>
+  </si>
+  <si>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_ADIAN_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>영상_사이코지만 괜찮아_썸네일</t>
   </si>
   <si>
     <t>charin9892@naver.com</t>
@@ -822,12 +843,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -842,7 +869,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -868,10 +895,20 @@
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
@@ -1099,7 +1136,9 @@
     <col customWidth="1" min="5" max="5" width="15.38"/>
     <col customWidth="1" min="6" max="6" width="29.88"/>
     <col customWidth="1" min="7" max="7" width="21.38"/>
-    <col customWidth="1" min="8" max="14" width="18.88"/>
+    <col customWidth="1" min="8" max="9" width="18.88"/>
+    <col customWidth="1" min="10" max="10" width="28.38"/>
+    <col customWidth="1" min="11" max="14" width="18.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1185,40 +1224,44 @@
       <c r="H3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
+      <c r="I3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
     </row>
     <row r="4">
       <c r="A4" s="4">
         <v>45484.39469783565</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5">
         <v>2.020111532E9</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="G4" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -1226,28 +1269,28 @@
         <v>45484.40977184028</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" s="5">
         <v>2.020111534E9</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="G5" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -1255,150 +1298,145 @@
         <v>45483.85076756944</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C6" s="5">
         <v>2.021111528E9</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="G6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6">
+      <c r="A7" s="10">
         <v>45483.854299583334</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="7">
+      <c r="B7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="11">
         <v>2.019120113E9</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
+      <c r="G7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
     </row>
     <row r="8">
       <c r="A8" s="4">
         <v>45483.85051163194</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C8" s="5">
         <v>2.021120112E9</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>45483.85069501157</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="7">
+      <c r="B9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="5">
         <v>2.019111533E9</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
+      <c r="G9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="15"/>
     </row>
     <row r="10">
       <c r="A10" s="4">
         <v>45483.995296284724</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C10" s="5">
         <v>2.020111537E9</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="G10" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -1406,28 +1444,28 @@
         <v>45483.85499579861</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C11" s="5">
         <v>2.019111534E9</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="G11" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
@@ -1435,28 +1473,28 @@
         <v>45483.86951138889</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C12" s="5">
         <v>2.020111539E9</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="G12" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13">
@@ -1464,28 +1502,28 @@
         <v>45483.87195886574</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C13" s="5">
         <v>2.020111541E9</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="G13" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
@@ -1493,89 +1531,84 @@
         <v>45484.404544537036</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C14" s="5">
         <v>2.020111543E9</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6">
+      <c r="A15" s="4">
         <v>45483.97719099537</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="7">
+      <c r="B15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="5">
         <v>2.021120113E9</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="8" t="s">
+      <c r="E15" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
+      <c r="F15" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" s="15"/>
     </row>
     <row r="16">
       <c r="A16" s="4">
         <v>45483.857196689816</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C16" s="5">
         <v>2.020111546E9</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E16" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>88</v>
-      </c>
       <c r="G16" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17">
@@ -1583,28 +1616,28 @@
         <v>45483.85079027778</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C17" s="5">
         <v>2.020111547E9</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E17" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="G17" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18">
@@ -1612,28 +1645,28 @@
         <v>45484.43130753472</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C18" s="5">
         <v>2.020111648E9</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19">
@@ -1641,31 +1674,31 @@
         <v>45484.39505439815</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C19" s="5">
         <v>2.021111533E9</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E19" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>107</v>
-      </c>
       <c r="G19" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20">
@@ -1673,28 +1706,28 @@
         <v>45483.85055668982</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C20" s="5">
         <v>2.020111549E9</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E20" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>113</v>
-      </c>
       <c r="G20" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21">
@@ -1702,28 +1735,28 @@
         <v>45484.34876212963</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C21" s="5">
         <v>2.019111549E9</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22">
@@ -1731,28 +1764,28 @@
         <v>45484.000700868055</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C22" s="5">
         <v>2.021111537E9</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E22" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>125</v>
-      </c>
       <c r="G22" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23">
@@ -1760,28 +1793,28 @@
         <v>45483.99446587963</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C23" s="5">
         <v>2.020111279E9</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E23" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>131</v>
-      </c>
       <c r="G23" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24">
@@ -1789,28 +1822,28 @@
         <v>45483.851098784726</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C24" s="5">
         <v>2.019111514E9</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E24" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>137</v>
-      </c>
       <c r="G24" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="J24" s="5"/>
     </row>
@@ -1819,182 +1852,178 @@
         <v>45483.88282304398</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C25" s="5">
         <v>2.021120114E9</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="6">
+      <c r="A26" s="4">
         <v>45483.849926689814</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C26" s="7">
+      <c r="B26" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="5">
         <v>2.020111551E9</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E26" s="7" t="s">
+      <c r="D26" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="I26" s="9"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
+      <c r="G26" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" s="5"/>
     </row>
     <row r="27" ht="15.0" customHeight="1">
-      <c r="A27" s="6">
+      <c r="A27" s="10">
         <v>45483.98998572917</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C27" s="7">
+      <c r="B27" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" s="11">
         <v>2.021111624E9</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G27" s="7" t="s">
+      <c r="D27" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="H27" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="I27" s="9"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
+      <c r="E27" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="I27" s="13"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
     </row>
     <row r="28">
       <c r="A28" s="4">
         <v>45483.86138434028</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C28" s="5">
         <v>2.020111554E9</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="6">
+      <c r="A29" s="4">
         <v>45483.853345069445</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C29" s="7">
+      <c r="B29" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C29" s="5">
         <v>2.020111555E9</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="D29" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="E29" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="I29" s="9"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
+      <c r="F29" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="K29" s="5"/>
     </row>
     <row r="30">
       <c r="A30" s="4">
         <v>45484.41054541667</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C30" s="5">
         <v>2.021111514E9</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31">
@@ -2002,245 +2031,233 @@
         <v>45483.850282025465</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C31" s="5">
         <v>2.020111556E9</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="6">
+      <c r="A32" s="4">
         <v>45483.89063083333</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C32" s="7">
+      <c r="B32" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C32" s="5">
         <v>2.021111542E9</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="H32" s="8"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="7" t="s">
+      <c r="D32" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
+      <c r="G32" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
     </row>
     <row r="33">
-      <c r="A33" s="6">
+      <c r="A33" s="4">
         <v>45483.95184060185</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C33" s="5">
+        <v>2.020111557E9</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C33" s="7">
-        <v>2.020111557E9</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F33" s="7" t="s">
+      <c r="E33" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="G33" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
+      <c r="F33" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
     </row>
     <row r="34">
       <c r="A34" s="4">
         <v>45483.89757565972</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C34" s="5">
         <v>2.021111544E9</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="6">
+      <c r="A35" s="4">
         <v>45483.85859116898</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C35" s="7">
+      <c r="B35" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C35" s="5">
         <v>2.020111559E9</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="I35" s="9"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
+      <c r="D35" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="I35" s="15"/>
     </row>
     <row r="36">
       <c r="A36" s="4">
         <v>45483.85713200232</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C36" s="5">
         <v>2.020111493E9</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="6">
+      <c r="A37" s="4">
         <v>45483.99619723379</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="C37" s="7">
+      <c r="B37" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C37" s="5">
         <v>2.02011156E9</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="H37" s="8" t="s">
+      <c r="D37" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="H37" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I37" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
+      <c r="I37" s="3" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="4">
         <v>45484.42563222222</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C38" s="5">
         <v>2.020111561E9</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39">
@@ -2248,28 +2265,28 @@
         <v>45484.06832515047</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C39" s="5">
         <v>2.021111552E9</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40">
@@ -2277,152 +2294,147 @@
         <v>45483.850670115746</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C40" s="5">
         <v>2.019111565E9</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="6">
+      <c r="A41" s="10">
         <v>45483.874047777776</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C41" s="7">
+      <c r="B41" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C41" s="11">
         <v>2.020111563E9</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="I41" s="9"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
+      <c r="D41" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="I41" s="13"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
     </row>
     <row r="42">
       <c r="A42" s="4">
         <v>45483.85081371528</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C42" s="5">
         <v>2.020111564E9</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="6">
+      <c r="A43" s="4">
         <v>45484.0004687037</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="C43" s="7">
+      <c r="B43" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C43" s="5">
         <v>2.020111565E9</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
+      <c r="D43" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="4">
         <v>45483.92174563657</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C44" s="5">
         <v>2.020111567E9</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="45">
@@ -2430,28 +2442,28 @@
         <v>45483.89706001157</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C45" s="5">
         <v>2.021111559E9</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="46">
@@ -2459,429 +2471,429 @@
         <v>45483.98033005787</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="C46" s="5">
         <v>2.020111569E9</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
     <row r="47">
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
     </row>
     <row r="48">
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
     </row>
     <row r="49">
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
     </row>
     <row r="50">
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
     </row>
     <row r="51">
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
     </row>
     <row r="52">
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
     </row>
     <row r="53">
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
     </row>
     <row r="54">
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
     </row>
     <row r="55">
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
     </row>
     <row r="56">
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
     </row>
     <row r="57">
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
     </row>
     <row r="58">
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
     </row>
     <row r="59">
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
     </row>
     <row r="60">
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
     </row>
     <row r="61">
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
     </row>
     <row r="62">
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
     </row>
     <row r="63">
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
     </row>
     <row r="64">
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
     </row>
     <row r="65">
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
     </row>
     <row r="66">
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
     </row>
     <row r="67">
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
     </row>
     <row r="68">
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
     </row>
     <row r="69">
-      <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
     </row>
     <row r="70">
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
     </row>
     <row r="71">
-      <c r="H71" s="11"/>
-      <c r="I71" s="11"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
     </row>
     <row r="72">
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
     </row>
     <row r="73">
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
     </row>
     <row r="74">
-      <c r="H74" s="11"/>
-      <c r="I74" s="11"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
     </row>
     <row r="75">
-      <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
     </row>
     <row r="76">
-      <c r="H76" s="11"/>
-      <c r="I76" s="11"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
     </row>
     <row r="77">
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
     </row>
     <row r="78">
-      <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
     </row>
     <row r="79">
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
     </row>
     <row r="80">
-      <c r="H80" s="11"/>
-      <c r="I80" s="11"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
     </row>
     <row r="81">
-      <c r="H81" s="11"/>
-      <c r="I81" s="11"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
     </row>
     <row r="82">
-      <c r="H82" s="11"/>
-      <c r="I82" s="11"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
     </row>
     <row r="83">
-      <c r="H83" s="11"/>
-      <c r="I83" s="11"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
     </row>
     <row r="84">
-      <c r="H84" s="11"/>
-      <c r="I84" s="11"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
     </row>
     <row r="85">
-      <c r="H85" s="11"/>
-      <c r="I85" s="11"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
     </row>
     <row r="86">
-      <c r="H86" s="11"/>
-      <c r="I86" s="11"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
     </row>
     <row r="87">
-      <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
     </row>
     <row r="88">
-      <c r="H88" s="11"/>
-      <c r="I88" s="11"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
     </row>
     <row r="89">
-      <c r="H89" s="11"/>
-      <c r="I89" s="11"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
     </row>
     <row r="90">
-      <c r="H90" s="11"/>
-      <c r="I90" s="11"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
     </row>
     <row r="91">
-      <c r="H91" s="11"/>
-      <c r="I91" s="11"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
     </row>
     <row r="92">
-      <c r="H92" s="11"/>
-      <c r="I92" s="11"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
     </row>
     <row r="93">
-      <c r="H93" s="11"/>
-      <c r="I93" s="11"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
     </row>
     <row r="94">
-      <c r="H94" s="11"/>
-      <c r="I94" s="11"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
     </row>
     <row r="95">
-      <c r="H95" s="11"/>
-      <c r="I95" s="11"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
     </row>
     <row r="96">
-      <c r="H96" s="11"/>
-      <c r="I96" s="11"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
     </row>
     <row r="97">
-      <c r="H97" s="11"/>
-      <c r="I97" s="11"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
     </row>
     <row r="98">
-      <c r="H98" s="11"/>
-      <c r="I98" s="11"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
     </row>
     <row r="99">
-      <c r="H99" s="11"/>
-      <c r="I99" s="11"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
     </row>
     <row r="100">
-      <c r="H100" s="11"/>
-      <c r="I100" s="11"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
     </row>
     <row r="101">
-      <c r="H101" s="11"/>
-      <c r="I101" s="11"/>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
     </row>
     <row r="102">
-      <c r="H102" s="11"/>
-      <c r="I102" s="11"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
     </row>
     <row r="103">
-      <c r="H103" s="11"/>
-      <c r="I103" s="11"/>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
     </row>
     <row r="104">
-      <c r="H104" s="11"/>
-      <c r="I104" s="11"/>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
     </row>
     <row r="105">
-      <c r="H105" s="11"/>
-      <c r="I105" s="11"/>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
     </row>
     <row r="106">
-      <c r="H106" s="11"/>
-      <c r="I106" s="11"/>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
     </row>
     <row r="107">
-      <c r="H107" s="11"/>
-      <c r="I107" s="11"/>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
     </row>
     <row r="108">
-      <c r="H108" s="11"/>
-      <c r="I108" s="11"/>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
     </row>
     <row r="109">
-      <c r="H109" s="11"/>
-      <c r="I109" s="11"/>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
     </row>
     <row r="110">
-      <c r="H110" s="11"/>
-      <c r="I110" s="11"/>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
     </row>
     <row r="111">
-      <c r="H111" s="11"/>
-      <c r="I111" s="11"/>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
     </row>
     <row r="112">
-      <c r="H112" s="11"/>
-      <c r="I112" s="11"/>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
     </row>
     <row r="113">
-      <c r="H113" s="11"/>
-      <c r="I113" s="11"/>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
     </row>
     <row r="114">
-      <c r="H114" s="11"/>
-      <c r="I114" s="11"/>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
     </row>
     <row r="115">
-      <c r="H115" s="11"/>
-      <c r="I115" s="11"/>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
     </row>
     <row r="116">
-      <c r="H116" s="11"/>
-      <c r="I116" s="11"/>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
     </row>
     <row r="117">
-      <c r="H117" s="11"/>
-      <c r="I117" s="11"/>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
     </row>
     <row r="118">
-      <c r="H118" s="11"/>
-      <c r="I118" s="11"/>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
     </row>
     <row r="119">
-      <c r="H119" s="11"/>
-      <c r="I119" s="11"/>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
     </row>
     <row r="120">
-      <c r="H120" s="11"/>
-      <c r="I120" s="11"/>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
     </row>
     <row r="121">
-      <c r="H121" s="11"/>
-      <c r="I121" s="11"/>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
     </row>
     <row r="122">
-      <c r="H122" s="11"/>
-      <c r="I122" s="11"/>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
     </row>
     <row r="123">
-      <c r="H123" s="11"/>
-      <c r="I123" s="11"/>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
     </row>
     <row r="124">
-      <c r="H124" s="11"/>
-      <c r="I124" s="11"/>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
     </row>
     <row r="125">
-      <c r="H125" s="11"/>
-      <c r="I125" s="11"/>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
     </row>
     <row r="126">
-      <c r="H126" s="11"/>
-      <c r="I126" s="11"/>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
     </row>
     <row r="127">
-      <c r="H127" s="11"/>
-      <c r="I127" s="11"/>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
     </row>
     <row r="128">
-      <c r="H128" s="11"/>
-      <c r="I128" s="11"/>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
     </row>
     <row r="129">
-      <c r="H129" s="11"/>
-      <c r="I129" s="11"/>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
     </row>
     <row r="130">
-      <c r="H130" s="11"/>
-      <c r="I130" s="11"/>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
     </row>
     <row r="131">
-      <c r="H131" s="11"/>
-      <c r="I131" s="11"/>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
     </row>
     <row r="132">
-      <c r="H132" s="11"/>
-      <c r="I132" s="11"/>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
     </row>
     <row r="133">
-      <c r="H133" s="11"/>
-      <c r="I133" s="11"/>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
     </row>
     <row r="134">
-      <c r="H134" s="11"/>
-      <c r="I134" s="11"/>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
     </row>
     <row r="135">
-      <c r="H135" s="11"/>
-      <c r="I135" s="11"/>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
     </row>
     <row r="136">
-      <c r="H136" s="11"/>
-      <c r="I136" s="11"/>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
     </row>
     <row r="137">
-      <c r="H137" s="11"/>
-      <c r="I137" s="11"/>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
     </row>
     <row r="138">
-      <c r="H138" s="11"/>
-      <c r="I138" s="11"/>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
     </row>
     <row r="139">
-      <c r="H139" s="11"/>
-      <c r="I139" s="11"/>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
     </row>
     <row r="140">
-      <c r="H140" s="11"/>
-      <c r="I140" s="11"/>
+      <c r="H140" s="15"/>
+      <c r="I140" s="15"/>
     </row>
     <row r="141">
-      <c r="H141" s="11"/>
-      <c r="I141" s="11"/>
+      <c r="H141" s="15"/>
+      <c r="I141" s="15"/>
     </row>
     <row r="142">
-      <c r="H142" s="11"/>
-      <c r="I142" s="11"/>
+      <c r="H142" s="15"/>
+      <c r="I142" s="15"/>
     </row>
     <row r="143">
-      <c r="H143" s="11"/>
-      <c r="I143" s="11"/>
+      <c r="H143" s="15"/>
+      <c r="I143" s="15"/>
     </row>
     <row r="144">
-      <c r="H144" s="11"/>
-      <c r="I144" s="11"/>
+      <c r="H144" s="15"/>
+      <c r="I144" s="15"/>
     </row>
     <row r="145">
-      <c r="H145" s="11"/>
-      <c r="I145" s="11"/>
+      <c r="H145" s="15"/>
+      <c r="I145" s="15"/>
     </row>
     <row r="146">
-      <c r="H146" s="11"/>
-      <c r="I146" s="11"/>
+      <c r="H146" s="15"/>
+      <c r="I146" s="15"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/public/data/designer_list.xlsx
+++ b/public/data/designer_list.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="272">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -79,9 +79,6 @@
     <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_Lost+and+Found_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
-    <t>영상 Lost and Found</t>
-  </si>
-  <si>
     <t>ksiyeon2020@naver.com</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
     <t>영상_남겨진 날_썸네일</t>
   </si>
   <si>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_TYPELIGHT_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
     <t>ny990108@gmail.com</t>
   </si>
   <si>
@@ -496,6 +496,9 @@
     <t>@ch5uch5u</t>
   </si>
   <si>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_History+Cantabile_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
     <t>ytojin52@naver.com</t>
   </si>
   <si>
@@ -740,6 +743,9 @@
   </si>
   <si>
     <t>브랜딩_포에_썸네일</t>
+  </si>
+  <si>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_Diaspora_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>03chim08@naver.com</t>
@@ -843,24 +849,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
-        <bgColor rgb="FFF4CCCC"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -869,7 +863,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -886,29 +880,6 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
@@ -1200,68 +1171,61 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>45483.8698615162</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>2.021111525E9</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
     </row>
     <row r="4">
       <c r="A4" s="4">
         <v>45484.39469783565</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="5">
         <v>2.020111532E9</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -1269,28 +1233,28 @@
         <v>45484.40977184028</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="5">
         <v>2.020111534E9</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -1298,61 +1262,58 @@
         <v>45483.85076756944</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="5">
         <v>2.021111528E9</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="3" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="4">
+        <v>45483.854299583334</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="10">
-        <v>45483.854299583334</v>
-      </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="5">
+        <v>2.019120113E9</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="11">
-        <v>2.019120113E9</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="E7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="F7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="12" t="s">
+      <c r="I7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
     </row>
     <row r="8">
       <c r="A8" s="4">
@@ -1374,7 +1335,7 @@
         <v>47</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>48</v>
@@ -1408,7 +1369,7 @@
       <c r="H9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="15"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10">
       <c r="A10" s="4">
@@ -1575,12 +1536,12 @@
         <v>88</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="I15" s="15"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16">
       <c r="A16" s="4">
@@ -1697,9 +1658,7 @@
       <c r="I19" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>114</v>
-      </c>
+      <c r="J19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" s="4">
@@ -1837,7 +1796,7 @@
         <v>139</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>76</v>
@@ -1907,64 +1866,61 @@
       <c r="K26" s="5"/>
     </row>
     <row r="27" ht="15.0" customHeight="1">
-      <c r="A27" s="10">
+      <c r="A27" s="4">
         <v>45483.98998572917</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="5">
         <v>2.021111624E9</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="H27" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="I27" s="13"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
+      <c r="I27" s="3" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="4">
         <v>45483.86138434028</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C28" s="5">
         <v>2.020111554E9</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29">
@@ -1972,28 +1928,28 @@
         <v>45483.853345069445</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C29" s="5">
         <v>2.020111555E9</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K29" s="5"/>
     </row>
@@ -2002,28 +1958,28 @@
         <v>45484.41054541667</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C30" s="5">
         <v>2.021111514E9</v>
       </c>
       <c r="D30" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>174</v>
-      </c>
       <c r="G30" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31">
@@ -2031,28 +1987,28 @@
         <v>45483.850282025465</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C31" s="5">
         <v>2.020111556E9</v>
       </c>
       <c r="D31" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>180</v>
-      </c>
       <c r="G31" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32">
@@ -2060,28 +2016,28 @@
         <v>45483.89063083333</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C32" s="5">
         <v>2.021111542E9</v>
       </c>
       <c r="D32" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>185</v>
-      </c>
       <c r="G32" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
@@ -2091,28 +2047,28 @@
         <v>45483.95184060185</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C33" s="5">
         <v>2.020111557E9</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
@@ -2122,28 +2078,28 @@
         <v>45483.89757565972</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C34" s="5">
         <v>2.021111544E9</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35">
@@ -2151,55 +2107,55 @@
         <v>45483.85859116898</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C35" s="5">
         <v>2.020111559E9</v>
       </c>
       <c r="D35" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>203</v>
-      </c>
       <c r="G35" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="I35" s="15"/>
+        <v>208</v>
+      </c>
+      <c r="I35" s="6"/>
     </row>
     <row r="36">
       <c r="A36" s="4">
         <v>45483.85713200232</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C36" s="5">
         <v>2.020111493E9</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37">
@@ -2207,22 +2163,22 @@
         <v>45483.99619723379</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C37" s="5">
         <v>2.02011156E9</v>
       </c>
       <c r="D37" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>215</v>
-      </c>
       <c r="G37" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>14</v>
@@ -2236,25 +2192,25 @@
         <v>45484.42563222222</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C38" s="5">
         <v>2.020111561E9</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>132</v>
@@ -2265,28 +2221,28 @@
         <v>45484.06832515047</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C39" s="5">
         <v>2.021111552E9</v>
       </c>
       <c r="D39" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>225</v>
-      </c>
       <c r="G39" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="40">
@@ -2294,89 +2250,86 @@
         <v>45483.850670115746</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C40" s="5">
         <v>2.019111565E9</v>
       </c>
       <c r="D40" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>231</v>
-      </c>
       <c r="G40" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="10">
+      <c r="A41" s="4">
         <v>45483.874047777776</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="C41" s="11">
+      <c r="B41" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C41" s="5">
         <v>2.020111563E9</v>
       </c>
-      <c r="D41" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="E41" s="11" t="s">
+      <c r="D41" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="F41" s="11" t="s">
+      <c r="E41" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="G41" s="11" t="s">
+      <c r="F41" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="H41" s="12" t="s">
+      <c r="G41" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="I41" s="13"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
+      <c r="H41" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="4">
         <v>45483.85081371528</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C42" s="5">
         <v>2.020111564E9</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E42" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="F42" s="5" t="s">
-        <v>243</v>
-      </c>
       <c r="G42" s="5" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="43">
@@ -2384,25 +2337,25 @@
         <v>45484.0004687037</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C43" s="5">
         <v>2.020111565E9</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E43" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>249</v>
-      </c>
       <c r="G43" s="5" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>138</v>
@@ -2413,28 +2366,28 @@
         <v>45483.92174563657</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C44" s="5">
         <v>2.020111567E9</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E44" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>254</v>
-      </c>
       <c r="G44" s="5" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45">
@@ -2442,28 +2395,28 @@
         <v>45483.89706001157</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C45" s="5">
         <v>2.021111559E9</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E45" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="F45" s="5" t="s">
-        <v>259</v>
-      </c>
       <c r="G45" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="46">
@@ -2471,429 +2424,429 @@
         <v>45483.98033005787</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C46" s="5">
         <v>2.020111569E9</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E46" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="F46" s="5" t="s">
-        <v>264</v>
-      </c>
       <c r="G46" s="5" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47">
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
     </row>
     <row r="48">
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
     </row>
     <row r="49">
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
     </row>
     <row r="50">
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
     </row>
     <row r="51">
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
     </row>
     <row r="52">
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
     </row>
     <row r="53">
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
     </row>
     <row r="54">
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
     </row>
     <row r="55">
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
     </row>
     <row r="56">
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
     </row>
     <row r="57">
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
     </row>
     <row r="58">
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
     </row>
     <row r="59">
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
     </row>
     <row r="60">
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
     </row>
     <row r="61">
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
     </row>
     <row r="62">
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
     </row>
     <row r="63">
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
     </row>
     <row r="64">
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
     </row>
     <row r="65">
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
     </row>
     <row r="66">
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
     </row>
     <row r="67">
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
     </row>
     <row r="68">
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
     </row>
     <row r="69">
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
     </row>
     <row r="70">
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
     </row>
     <row r="71">
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
     </row>
     <row r="72">
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
     </row>
     <row r="73">
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
     </row>
     <row r="74">
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
     </row>
     <row r="75">
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
     </row>
     <row r="76">
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
     </row>
     <row r="77">
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
     </row>
     <row r="78">
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
     </row>
     <row r="79">
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
     </row>
     <row r="80">
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
     </row>
     <row r="81">
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
     </row>
     <row r="82">
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
     </row>
     <row r="83">
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
     </row>
     <row r="84">
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
     </row>
     <row r="85">
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
     </row>
     <row r="86">
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
     </row>
     <row r="87">
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
     </row>
     <row r="88">
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
     </row>
     <row r="89">
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
     </row>
     <row r="90">
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
     </row>
     <row r="91">
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
     </row>
     <row r="92">
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
     </row>
     <row r="93">
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
     </row>
     <row r="94">
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
     </row>
     <row r="95">
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
     </row>
     <row r="96">
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
     </row>
     <row r="97">
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
     </row>
     <row r="98">
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
     </row>
     <row r="99">
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
     </row>
     <row r="100">
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
     </row>
     <row r="101">
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
     </row>
     <row r="102">
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
     </row>
     <row r="103">
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
     </row>
     <row r="104">
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
     </row>
     <row r="105">
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
     </row>
     <row r="106">
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
     </row>
     <row r="107">
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
     </row>
     <row r="108">
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
     </row>
     <row r="109">
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
     </row>
     <row r="110">
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
     </row>
     <row r="111">
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
     </row>
     <row r="112">
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="6"/>
     </row>
     <row r="113">
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
     </row>
     <row r="114">
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
     </row>
     <row r="115">
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="6"/>
     </row>
     <row r="116">
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="6"/>
     </row>
     <row r="117">
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="6"/>
     </row>
     <row r="118">
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="6"/>
     </row>
     <row r="119">
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
+      <c r="H119" s="6"/>
+      <c r="I119" s="6"/>
     </row>
     <row r="120">
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
+      <c r="H120" s="6"/>
+      <c r="I120" s="6"/>
     </row>
     <row r="121">
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
+      <c r="H121" s="6"/>
+      <c r="I121" s="6"/>
     </row>
     <row r="122">
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
+      <c r="H122" s="6"/>
+      <c r="I122" s="6"/>
     </row>
     <row r="123">
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
+      <c r="H123" s="6"/>
+      <c r="I123" s="6"/>
     </row>
     <row r="124">
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
+      <c r="H124" s="6"/>
+      <c r="I124" s="6"/>
     </row>
     <row r="125">
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
+      <c r="H125" s="6"/>
+      <c r="I125" s="6"/>
     </row>
     <row r="126">
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
+      <c r="H126" s="6"/>
+      <c r="I126" s="6"/>
     </row>
     <row r="127">
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
+      <c r="H127" s="6"/>
+      <c r="I127" s="6"/>
     </row>
     <row r="128">
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
+      <c r="H128" s="6"/>
+      <c r="I128" s="6"/>
     </row>
     <row r="129">
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
     </row>
     <row r="130">
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
     </row>
     <row r="131">
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
+      <c r="H131" s="6"/>
+      <c r="I131" s="6"/>
     </row>
     <row r="132">
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
+      <c r="H132" s="6"/>
+      <c r="I132" s="6"/>
     </row>
     <row r="133">
-      <c r="H133" s="15"/>
-      <c r="I133" s="15"/>
+      <c r="H133" s="6"/>
+      <c r="I133" s="6"/>
     </row>
     <row r="134">
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
+      <c r="H134" s="6"/>
+      <c r="I134" s="6"/>
     </row>
     <row r="135">
-      <c r="H135" s="15"/>
-      <c r="I135" s="15"/>
+      <c r="H135" s="6"/>
+      <c r="I135" s="6"/>
     </row>
     <row r="136">
-      <c r="H136" s="15"/>
-      <c r="I136" s="15"/>
+      <c r="H136" s="6"/>
+      <c r="I136" s="6"/>
     </row>
     <row r="137">
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
+      <c r="H137" s="6"/>
+      <c r="I137" s="6"/>
     </row>
     <row r="138">
-      <c r="H138" s="15"/>
-      <c r="I138" s="15"/>
+      <c r="H138" s="6"/>
+      <c r="I138" s="6"/>
     </row>
     <row r="139">
-      <c r="H139" s="15"/>
-      <c r="I139" s="15"/>
+      <c r="H139" s="6"/>
+      <c r="I139" s="6"/>
     </row>
     <row r="140">
-      <c r="H140" s="15"/>
-      <c r="I140" s="15"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
     </row>
     <row r="141">
-      <c r="H141" s="15"/>
-      <c r="I141" s="15"/>
+      <c r="H141" s="6"/>
+      <c r="I141" s="6"/>
     </row>
     <row r="142">
-      <c r="H142" s="15"/>
-      <c r="I142" s="15"/>
+      <c r="H142" s="6"/>
+      <c r="I142" s="6"/>
     </row>
     <row r="143">
-      <c r="H143" s="15"/>
-      <c r="I143" s="15"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
     </row>
     <row r="144">
-      <c r="H144" s="15"/>
-      <c r="I144" s="15"/>
+      <c r="H144" s="6"/>
+      <c r="I144" s="6"/>
     </row>
     <row r="145">
-      <c r="H145" s="15"/>
-      <c r="I145" s="15"/>
+      <c r="H145" s="6"/>
+      <c r="I145" s="6"/>
     </row>
     <row r="146">
-      <c r="H146" s="15"/>
-      <c r="I146" s="15"/>
+      <c r="H146" s="6"/>
+      <c r="I146" s="6"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/public/data/designer_list.xlsx
+++ b/public/data/designer_list.xlsx
@@ -91,7 +91,7 @@
     <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_Lost+and+Found_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
-    <t>브랜딩_의식 낚시_Consciousness Fishing</t>
+    <t>그래픽_의식 낚시_Consciousness Fishing</t>
   </si>
   <si>
     <t>영상_lost and found _ millennium parade</t>
@@ -1466,7 +1466,7 @@
       <c r="I3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K3" s="8" t="s">

--- a/public/data/designer_list.xlsx
+++ b/public/data/designer_list.xlsx
@@ -70,7 +70,7 @@
     <t>브랜딩_frup</t>
   </si>
   <si>
-    <t>영상_no pain</t>
+    <t>영상_NO PAIN</t>
   </si>
   <si>
     <t>wide1543@gmail.com</t>
@@ -1434,7 +1434,7 @@
       <c r="J2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="4" t="s">
         <v>19</v>
       </c>
     </row>

--- a/public/data/designer_list.xlsx
+++ b/public/data/designer_list.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="371">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1067,6 +1067,63 @@
   </si>
   <si>
     <t>영상_Telephobia</t>
+  </si>
+  <si>
+    <t>akuak0627@naver.com</t>
+  </si>
+  <si>
+    <t>임해서</t>
+  </si>
+  <si>
+    <t>Lim Haeseo</t>
+  </si>
+  <si>
+    <t>브랜딩_파블스_썸네일</t>
+  </si>
+  <si>
+    <t>UXUI_루나리움</t>
+  </si>
+  <si>
+    <t>브랜딩_파블스</t>
+  </si>
+  <si>
+    <t>ekgml1393@kakao.com</t>
+  </si>
+  <si>
+    <t>박다희</t>
+  </si>
+  <si>
+    <t>Dahee Park</t>
+  </si>
+  <si>
+    <t>1_dixxiq_</t>
+  </si>
+  <si>
+    <t>Trip with you</t>
+  </si>
+  <si>
+    <t>김민지</t>
+  </si>
+  <si>
+    <t>_x0008_Minji Kim</t>
+  </si>
+  <si>
+    <t>mzmzkim@naver.com</t>
+  </si>
+  <si>
+    <t>@m_zdizzy</t>
+  </si>
+  <si>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%83%E1%85%A1%E1%84%8B%E1%85%B5%E1%84%82%E1%85%A9%E1%84%89%E1%85%B5%E1%86%B7%E1%84%91%E1%85%A9%E1%84%82%E1%85%B5__%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_%E1%84%87%E1%85%AE%E1%86%AB%E1%84%89%E1%85%B5%E1%86%AB%E1%84%89%E1%85%AE%E1%86%AFdoppelganger_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>브랜딩_다이노심포니</t>
+  </si>
+  <si>
+    <t>그래픽_분신술doppelganger</t>
   </si>
 </sst>
 </file>
@@ -2967,20 +3024,98 @@
       </c>
     </row>
     <row r="47">
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
+      <c r="A47" s="5">
+        <v>45491.714419675925</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C47" s="6">
+        <v>2.020111558E9</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="48">
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
+      <c r="A48" s="5">
+        <v>45491.71528247686</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="C48" s="6">
+        <v>2.019111537E9</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="49">
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
+      <c r="D49" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="50">
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
     </row>
     <row r="51">
       <c r="H51" s="9"/>
@@ -3365,6 +3500,14 @@
     <row r="146">
       <c r="H146" s="9"/>
       <c r="I146" s="9"/>
+    </row>
+    <row r="147">
+      <c r="H147" s="9"/>
+      <c r="I147" s="9"/>
+    </row>
+    <row r="148">
+      <c r="H148" s="9"/>
+      <c r="I148" s="9"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
